--- a/data/pca/factorExposure/factorExposure_2017-10-17.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-10-17.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.02386665903427761</v>
+        <v>-0.0126280216782141</v>
       </c>
       <c r="C2">
-        <v>-0.001834775264259641</v>
+        <v>-0.03805315554529264</v>
       </c>
       <c r="D2">
-        <v>0.01776474179520466</v>
+        <v>-0.02868216984281718</v>
       </c>
       <c r="E2">
-        <v>-0.01426141810096117</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.0326274850035029</v>
+      </c>
+      <c r="F2">
+        <v>-0.01849605247857992</v>
+      </c>
+      <c r="G2">
+        <v>-0.02275518373221554</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.01169574636331853</v>
+        <v>-0.05152063792853878</v>
       </c>
       <c r="C3">
-        <v>-0.04545770403794262</v>
+        <v>-0.07571452010692073</v>
       </c>
       <c r="D3">
-        <v>0.01641856483443627</v>
+        <v>-0.01468871983159617</v>
       </c>
       <c r="E3">
-        <v>-0.01206403346461306</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>0.08964484341562573</v>
+      </c>
+      <c r="F3">
+        <v>-0.05980035004544047</v>
+      </c>
+      <c r="G3">
+        <v>-0.07340657236065648</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.02190035388092994</v>
+        <v>-0.05583704536156983</v>
       </c>
       <c r="C4">
-        <v>-0.01826763435890721</v>
+        <v>-0.06222428590227012</v>
       </c>
       <c r="D4">
-        <v>0.06167316301954608</v>
+        <v>-0.02267383989816946</v>
       </c>
       <c r="E4">
-        <v>0.01162734173671423</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.01509901419270551</v>
+      </c>
+      <c r="F4">
+        <v>-0.004690000779375593</v>
+      </c>
+      <c r="G4">
+        <v>-0.04716512752464765</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.01472678890764815</v>
+        <v>-0.03245457472629466</v>
       </c>
       <c r="C6">
-        <v>-0.02131404178804457</v>
+        <v>-0.05322170545848857</v>
       </c>
       <c r="D6">
-        <v>0.08311469820964516</v>
+        <v>-0.01605225586082542</v>
       </c>
       <c r="E6">
-        <v>-0.001605056418428656</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.00993686297368389</v>
+      </c>
+      <c r="F6">
+        <v>-0.007087152179207701</v>
+      </c>
+      <c r="G6">
+        <v>-0.02746849773180718</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.01031231983108727</v>
+        <v>-0.019878924062174</v>
       </c>
       <c r="C7">
-        <v>-0.00630676677624899</v>
+        <v>-0.03589603881086922</v>
       </c>
       <c r="D7">
-        <v>0.03933617019582467</v>
+        <v>-0.01260485353404909</v>
       </c>
       <c r="E7">
-        <v>0.06823754475049723</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.01062061655669709</v>
+      </c>
+      <c r="F7">
+        <v>-0.002812910169153607</v>
+      </c>
+      <c r="G7">
+        <v>-0.07914282075489261</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-6.656976468013201e-06</v>
+        <v>0.001746817447006012</v>
       </c>
       <c r="C8">
-        <v>0.007965309515507757</v>
+        <v>-0.01469163493789612</v>
       </c>
       <c r="D8">
-        <v>0.01742770398716207</v>
+        <v>-0.003679566695959475</v>
       </c>
       <c r="E8">
-        <v>0.004516265114199079</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.01083499928167683</v>
+      </c>
+      <c r="F8">
+        <v>-0.02090628209998279</v>
+      </c>
+      <c r="G8">
+        <v>-0.02192054973325525</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.01436201018215634</v>
+        <v>-0.02845171823631762</v>
       </c>
       <c r="C9">
-        <v>-0.01799749729701575</v>
+        <v>-0.04188409334252245</v>
       </c>
       <c r="D9">
-        <v>0.04500545592946142</v>
+        <v>-0.01580429584136163</v>
       </c>
       <c r="E9">
-        <v>0.00220017905787958</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.01544742560519705</v>
+      </c>
+      <c r="F9">
+        <v>-0.01347768388137935</v>
+      </c>
+      <c r="G9">
+        <v>-0.03915604851442554</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.008563396006090015</v>
+        <v>-0.09163957197742545</v>
       </c>
       <c r="C10">
-        <v>-0.1469624108526293</v>
+        <v>0.1853509613065726</v>
       </c>
       <c r="D10">
-        <v>-0.1326578720453725</v>
+        <v>0.01918110139310115</v>
       </c>
       <c r="E10">
-        <v>0.01768681735229214</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.01584473480589927</v>
+      </c>
+      <c r="F10">
+        <v>0.01389550976169996</v>
+      </c>
+      <c r="G10">
+        <v>-0.03997525683856829</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>5.767254550717338e-05</v>
+        <v>-0.03454306231960666</v>
       </c>
       <c r="C11">
-        <v>-0.005936871953923475</v>
+        <v>-0.05428767913049303</v>
       </c>
       <c r="D11">
-        <v>0.04522392224734337</v>
+        <v>-0.001914614947388615</v>
       </c>
       <c r="E11">
-        <v>-0.01292207733606158</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.003425613839607325</v>
+      </c>
+      <c r="F11">
+        <v>-0.01868123733136319</v>
+      </c>
+      <c r="G11">
+        <v>-0.02186606955777042</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.005339069662975186</v>
+        <v>-0.0320885500680603</v>
       </c>
       <c r="C12">
-        <v>-0.01494693891267362</v>
+        <v>-0.0450922998970641</v>
       </c>
       <c r="D12">
-        <v>0.04752607609491559</v>
+        <v>-0.005823856491600041</v>
       </c>
       <c r="E12">
-        <v>-0.004383805153763667</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.0036401184831334</v>
+      </c>
+      <c r="F12">
+        <v>-0.004291977680558856</v>
+      </c>
+      <c r="G12">
+        <v>-0.02534890709290002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.02124373142568817</v>
+        <v>-0.01335685605476403</v>
       </c>
       <c r="C13">
-        <v>-0.01511775954452498</v>
+        <v>-0.03246270311964088</v>
       </c>
       <c r="D13">
-        <v>0.01086199287178633</v>
+        <v>-0.02486276159594565</v>
       </c>
       <c r="E13">
-        <v>-0.008585582602162469</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.02510738714832279</v>
+      </c>
+      <c r="F13">
+        <v>-0.01190835310382187</v>
+      </c>
+      <c r="G13">
+        <v>-0.03243827803321794</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.006961525731580516</v>
+        <v>-0.008893589876710108</v>
       </c>
       <c r="C14">
-        <v>-0.01286260197088143</v>
+        <v>-0.02663020811371404</v>
       </c>
       <c r="D14">
-        <v>0.01786151429833098</v>
+        <v>-0.008521108433036528</v>
       </c>
       <c r="E14">
-        <v>0.009459444961687425</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.004755934363263214</v>
+      </c>
+      <c r="F14">
+        <v>0.001415856699256783</v>
+      </c>
+      <c r="G14">
+        <v>-0.03943987274209226</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.0005071509466333324</v>
+        <v>-0.03183425890375416</v>
       </c>
       <c r="C16">
-        <v>-0.0115712728786613</v>
+        <v>-0.04364599843502312</v>
       </c>
       <c r="D16">
-        <v>0.05190002795728012</v>
+        <v>-0.001364201744343569</v>
       </c>
       <c r="E16">
-        <v>-0.007549250344340596</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.005465817877636202</v>
+      </c>
+      <c r="F16">
+        <v>-0.009028037817433306</v>
+      </c>
+      <c r="G16">
+        <v>-0.02374377886068039</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,61 +1108,85 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.01242138056255379</v>
+        <v>-0.02956677680048936</v>
       </c>
       <c r="C19">
-        <v>-0.02347213818339043</v>
+        <v>-0.0514128422859214</v>
       </c>
       <c r="D19">
-        <v>0.02772717798887903</v>
+        <v>-0.01576674003455774</v>
       </c>
       <c r="E19">
-        <v>0.003173167140543757</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.05083488364685385</v>
+      </c>
+      <c r="F19">
+        <v>-0.02838017817926893</v>
+      </c>
+      <c r="G19">
+        <v>-0.04693572655052582</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.01033408356197931</v>
+        <v>-0.01207975279392254</v>
       </c>
       <c r="C20">
-        <v>-0.005067679052589184</v>
+        <v>-0.03501923682681389</v>
       </c>
       <c r="D20">
-        <v>0.0155507693649068</v>
+        <v>-0.01320953670586641</v>
       </c>
       <c r="E20">
-        <v>-0.002538821815814764</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.02453776083723281</v>
+      </c>
+      <c r="F20">
+        <v>0.002569051531270756</v>
+      </c>
+      <c r="G20">
+        <v>-0.03764937229673061</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.01343148569518124</v>
+        <v>-0.01601961732452835</v>
       </c>
       <c r="C21">
-        <v>-0.03597591710900346</v>
+        <v>-0.03462194849000294</v>
       </c>
       <c r="D21">
-        <v>0.01544315007976755</v>
+        <v>-0.01614503398186201</v>
       </c>
       <c r="E21">
-        <v>0.01808506738151966</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.03311907053629155</v>
+      </c>
+      <c r="F21">
+        <v>-0.00815004019213289</v>
+      </c>
+      <c r="G21">
+        <v>-0.05906988920337161</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1068,10 +1200,16 @@
       <c r="E22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1085,61 +1223,85 @@
       <c r="E23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.004630077091953766</v>
+        <v>-0.02645197438495662</v>
       </c>
       <c r="C24">
-        <v>-0.006706532580615751</v>
+        <v>-0.04677175801616642</v>
       </c>
       <c r="D24">
-        <v>0.04567769609508891</v>
+        <v>-0.006654039224662407</v>
       </c>
       <c r="E24">
-        <v>-0.007771088085402648</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.001774454382198558</v>
+      </c>
+      <c r="F24">
+        <v>-0.01497803853629594</v>
+      </c>
+      <c r="G24">
+        <v>-0.0250956749371878</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.01082637856160596</v>
+        <v>-0.04323119393283677</v>
       </c>
       <c r="C25">
-        <v>-0.02397681273021279</v>
+        <v>-0.05385875863095235</v>
       </c>
       <c r="D25">
-        <v>0.04439286212210332</v>
+        <v>-0.0105466082431254</v>
       </c>
       <c r="E25">
-        <v>-0.007005591214673508</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.006184531868648902</v>
+      </c>
+      <c r="F25">
+        <v>-0.009586879952914762</v>
+      </c>
+      <c r="G25">
+        <v>-0.0310319126697111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.0227405938733401</v>
+        <v>-0.009845268668052739</v>
       </c>
       <c r="C26">
-        <v>-0.008320058437375301</v>
+        <v>-0.009255968717234782</v>
       </c>
       <c r="D26">
-        <v>-0.003435849579542949</v>
+        <v>-0.02355884733963559</v>
       </c>
       <c r="E26">
-        <v>0.007283307871357622</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.00979641012863592</v>
+      </c>
+      <c r="F26">
+        <v>-0.0007394440713779238</v>
+      </c>
+      <c r="G26">
+        <v>-0.02921072719709544</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.02556618779692845</v>
+        <v>-0.1156233538232058</v>
       </c>
       <c r="C28">
-        <v>-0.2173700466306467</v>
+        <v>0.2272354196891194</v>
       </c>
       <c r="D28">
-        <v>-0.1894344806500131</v>
+        <v>0.01010227978610301</v>
       </c>
       <c r="E28">
-        <v>0.02897705913335191</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.00271767380002626</v>
+      </c>
+      <c r="F28">
+        <v>0.01311710861872459</v>
+      </c>
+      <c r="G28">
+        <v>-0.05920523585323732</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.00715497162111624</v>
+        <v>-0.01403141315980973</v>
       </c>
       <c r="C29">
-        <v>-0.01816254728804641</v>
+        <v>-0.02029243221372645</v>
       </c>
       <c r="D29">
-        <v>0.01481553366931949</v>
+        <v>-0.00714404742229888</v>
       </c>
       <c r="E29">
-        <v>0.005190974321882884</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.004985130233722297</v>
+      </c>
+      <c r="F29">
+        <v>0.01186720398301877</v>
+      </c>
+      <c r="G29">
+        <v>-0.02936320718652966</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.02360768349579834</v>
+        <v>-0.04580901424914442</v>
       </c>
       <c r="C30">
-        <v>-0.00786622093580373</v>
+        <v>-0.06847337618762077</v>
       </c>
       <c r="D30">
-        <v>0.0645837605639549</v>
+        <v>-0.02699524502808512</v>
       </c>
       <c r="E30">
-        <v>-0.06355150966232163</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.0399937578681179</v>
+      </c>
+      <c r="F30">
+        <v>-0.04256870569532002</v>
+      </c>
+      <c r="G30">
+        <v>-0.006855392544826355</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.006577096740382597</v>
+        <v>-0.04494918789383131</v>
       </c>
       <c r="C31">
-        <v>-0.04604866733982289</v>
+        <v>-0.03165555646040728</v>
       </c>
       <c r="D31">
-        <v>0.04177690779121979</v>
+        <v>-0.003381273886297334</v>
       </c>
       <c r="E31">
-        <v>0.001458021879125916</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.008536507247980236</v>
+      </c>
+      <c r="F31">
+        <v>0.03655519894231305</v>
+      </c>
+      <c r="G31">
+        <v>-0.02652995999302953</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.007110339982300088</v>
+        <v>-0.002490116811102455</v>
       </c>
       <c r="C32">
-        <v>-0.01506793872132719</v>
+        <v>-0.03629841118322234</v>
       </c>
       <c r="D32">
-        <v>0.007618353975181558</v>
+        <v>0.003963890701167302</v>
       </c>
       <c r="E32">
-        <v>0.02549072115816728</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.01399195185036641</v>
+      </c>
+      <c r="F32">
+        <v>-0.05288628095042464</v>
+      </c>
+      <c r="G32">
+        <v>-0.05679447393438475</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.01187962004675554</v>
+        <v>-0.02753620904086716</v>
       </c>
       <c r="C33">
-        <v>-0.02279760221250812</v>
+        <v>-0.05077689148559786</v>
       </c>
       <c r="D33">
-        <v>0.0239485956915433</v>
+        <v>-0.01439285533843718</v>
       </c>
       <c r="E33">
-        <v>-0.02648545217090319</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.02482613556474424</v>
+      </c>
+      <c r="F33">
+        <v>-0.02332945096712838</v>
+      </c>
+      <c r="G33">
+        <v>-0.03288992826210285</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.005206360589649457</v>
+        <v>-0.04403264920928468</v>
       </c>
       <c r="C34">
-        <v>-0.01947160700945634</v>
+        <v>-0.05500621854813221</v>
       </c>
       <c r="D34">
-        <v>0.05040722524455556</v>
+        <v>0.005365231836553915</v>
       </c>
       <c r="E34">
-        <v>0.0006036732340986462</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.007562641604337489</v>
+      </c>
+      <c r="F34">
+        <v>-0.01976560491578192</v>
+      </c>
+      <c r="G34">
+        <v>-0.03716155373500672</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01148408671713389</v>
+        <v>-0.0112434847963265</v>
       </c>
       <c r="C36">
-        <v>-0.01706622113103739</v>
+        <v>-0.006989681539369579</v>
       </c>
       <c r="D36">
-        <v>0.002315619286939257</v>
+        <v>-0.01132143294640476</v>
       </c>
       <c r="E36">
-        <v>0.00191232112197987</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.004607670595895196</v>
+      </c>
+      <c r="F36">
+        <v>0.004208942383390745</v>
+      </c>
+      <c r="G36">
+        <v>-0.02425153225082791</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.006580325146765916</v>
+        <v>-0.03177642597094259</v>
       </c>
       <c r="C38">
-        <v>-0.02622540902925563</v>
+        <v>-0.02634723444421624</v>
       </c>
       <c r="D38">
-        <v>0.02520018610553921</v>
+        <v>0.007761887214137877</v>
       </c>
       <c r="E38">
-        <v>-0.0003070223521463926</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.0037576989252193</v>
+      </c>
+      <c r="F38">
+        <v>0.00463739688405064</v>
+      </c>
+      <c r="G38">
+        <v>-0.03243894201664518</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.005811242431954834</v>
+        <v>-0.03307003272880422</v>
       </c>
       <c r="C39">
-        <v>0.0167369491651394</v>
+        <v>-0.08134525699457479</v>
       </c>
       <c r="D39">
-        <v>0.097034073765738</v>
+        <v>-0.0120520609525141</v>
       </c>
       <c r="E39">
-        <v>-0.01558940740417747</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.02503368893640261</v>
+      </c>
+      <c r="F39">
+        <v>-0.03559887645078284</v>
+      </c>
+      <c r="G39">
+        <v>-0.02776782133630087</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01045977704949734</v>
+        <v>-0.02145562827189514</v>
       </c>
       <c r="C40">
-        <v>-0.01756872337800165</v>
+        <v>-0.03061328768150792</v>
       </c>
       <c r="D40">
-        <v>0.04028982451864541</v>
+        <v>-0.01291213554359345</v>
       </c>
       <c r="E40">
-        <v>-0.01172628897128839</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.0191817331366189</v>
+      </c>
+      <c r="F40">
+        <v>-0.01794425033579831</v>
+      </c>
+      <c r="G40">
+        <v>-0.02386315083783057</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.004835554201750874</v>
+        <v>-0.01245583041503221</v>
       </c>
       <c r="C41">
-        <v>-0.01968146442203027</v>
+        <v>0.001181998477656436</v>
       </c>
       <c r="D41">
-        <v>-0.006833128162120823</v>
+        <v>-0.003485732406938006</v>
       </c>
       <c r="E41">
-        <v>0.002635405581078971</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.0009541038484991667</v>
+      </c>
+      <c r="F41">
+        <v>0.001801229964350045</v>
+      </c>
+      <c r="G41">
+        <v>-0.01592998879070802</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.09113993268790122</v>
+        <v>-0.02083856880128692</v>
       </c>
       <c r="C42">
-        <v>-0.009010252012232907</v>
+        <v>-0.04717569176432458</v>
       </c>
       <c r="D42">
-        <v>0.2278576900926432</v>
+        <v>-0.09728659880368759</v>
       </c>
       <c r="E42">
-        <v>-0.2840054384510672</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>0.04343360950549797</v>
+      </c>
+      <c r="F42">
+        <v>0.04919273445954296</v>
+      </c>
+      <c r="G42">
+        <v>0.184587797436879</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.005715065731686207</v>
+        <v>-0.02832875733110027</v>
       </c>
       <c r="C43">
-        <v>-0.01999980511289465</v>
+        <v>-0.007853083007089824</v>
       </c>
       <c r="D43">
-        <v>-0.01219181240827086</v>
+        <v>-0.003751986430539716</v>
       </c>
       <c r="E43">
-        <v>-0.0007707288821109246</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.006427902514305492</v>
+      </c>
+      <c r="F43">
+        <v>0.003038180460670061</v>
+      </c>
+      <c r="G43">
+        <v>-0.02207765113335066</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.002855717654852569</v>
+        <v>-0.01502869271974945</v>
       </c>
       <c r="C44">
-        <v>0.002806696777029837</v>
+        <v>-0.04862434353713189</v>
       </c>
       <c r="D44">
-        <v>0.0293637487560665</v>
+        <v>-0.006658016991687197</v>
       </c>
       <c r="E44">
-        <v>0.001874943794684231</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.01587433182398727</v>
+      </c>
+      <c r="F44">
+        <v>-0.01282365324041684</v>
+      </c>
+      <c r="G44">
+        <v>-0.03867479874246406</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.01040579083262989</v>
+        <v>-0.005367514998208603</v>
       </c>
       <c r="C46">
-        <v>-0.01713689602715734</v>
+        <v>-0.01633349562141712</v>
       </c>
       <c r="D46">
-        <v>0.01791268939588102</v>
+        <v>-0.0116321928637679</v>
       </c>
       <c r="E46">
-        <v>-0.00409085898244978</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.0001624510628763443</v>
+      </c>
+      <c r="F46">
+        <v>0.01381696798597785</v>
+      </c>
+      <c r="G46">
+        <v>-0.02617070715080421</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.0002009180792671409</v>
+        <v>-0.07315314277138206</v>
       </c>
       <c r="C47">
-        <v>-0.06042953791280202</v>
+        <v>-0.06424571483843571</v>
       </c>
       <c r="D47">
-        <v>0.04911104549319924</v>
+        <v>0.004934766797720546</v>
       </c>
       <c r="E47">
-        <v>-0.008239773688366887</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.01480863935037029</v>
+      </c>
+      <c r="F47">
+        <v>0.05597421829443141</v>
+      </c>
+      <c r="G47">
+        <v>-0.02395452429273865</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.002285118147008743</v>
+        <v>-0.02178189196061134</v>
       </c>
       <c r="C48">
-        <v>-0.0272092725746949</v>
+        <v>-0.009251520521009603</v>
       </c>
       <c r="D48">
-        <v>0.01110833540086273</v>
+        <v>-0.000563169971397078</v>
       </c>
       <c r="E48">
-        <v>-0.0009212838188866366</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.001463655867188693</v>
+      </c>
+      <c r="F48">
+        <v>0.01612034702692064</v>
+      </c>
+      <c r="G48">
+        <v>-0.02883142464451317</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.001718588766884561</v>
+        <v>-0.07959796144801902</v>
       </c>
       <c r="C50">
-        <v>-0.05064536339128701</v>
+        <v>-0.06526583343716916</v>
       </c>
       <c r="D50">
-        <v>0.0628935503030873</v>
+        <v>0.003759410811746714</v>
       </c>
       <c r="E50">
-        <v>0.01694259411466213</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.01230962877747951</v>
+      </c>
+      <c r="F50">
+        <v>0.05668244556106442</v>
+      </c>
+      <c r="G50">
+        <v>-0.04703457079881908</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.006917583502660674</v>
+        <v>-0.01203147972241283</v>
       </c>
       <c r="C51">
-        <v>-0.02003063111660897</v>
+        <v>-0.02872115247238078</v>
       </c>
       <c r="D51">
-        <v>-0.01207824024796755</v>
+        <v>-0.009022097461695688</v>
       </c>
       <c r="E51">
-        <v>0.009213485215626132</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.01196466204184414</v>
+      </c>
+      <c r="F51">
+        <v>-0.02384632721222579</v>
+      </c>
+      <c r="G51">
+        <v>-0.05210309014335505</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.002890770108145748</v>
+        <v>-0.09263275599628182</v>
       </c>
       <c r="C53">
-        <v>-0.08272080655517666</v>
+        <v>-0.08064323474599139</v>
       </c>
       <c r="D53">
-        <v>0.104654772745928</v>
+        <v>0.005333375004291477</v>
       </c>
       <c r="E53">
-        <v>-0.006004341975274548</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.04034241373292601</v>
+      </c>
+      <c r="F53">
+        <v>0.06538432370665474</v>
+      </c>
+      <c r="G53">
+        <v>-0.02473058275948604</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.001600585667275254</v>
+        <v>-0.02976883285864029</v>
       </c>
       <c r="C54">
-        <v>-0.03386481033574892</v>
+        <v>-0.007038802199328709</v>
       </c>
       <c r="D54">
-        <v>-0.009848221590535786</v>
+        <v>0.003414119929091406</v>
       </c>
       <c r="E54">
-        <v>0.01133170490796048</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.005578050057701899</v>
+      </c>
+      <c r="F54">
+        <v>0.003241827295804659</v>
+      </c>
+      <c r="G54">
+        <v>-0.03464600406393675</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.0007580544928550137</v>
+        <v>-0.07247432899541603</v>
       </c>
       <c r="C55">
-        <v>-0.05882052103346187</v>
+        <v>-0.0740678841555107</v>
       </c>
       <c r="D55">
-        <v>0.09004670922403837</v>
+        <v>0.004512123193812347</v>
       </c>
       <c r="E55">
-        <v>-0.0163500798931686</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.0294955015845441</v>
+      </c>
+      <c r="F55">
+        <v>0.05933572363073739</v>
+      </c>
+      <c r="G55">
+        <v>-0.01077519298072659</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.0005139765197515921</v>
+        <v>-0.1421503428545376</v>
       </c>
       <c r="C56">
-        <v>-0.1041344508063733</v>
+        <v>-0.1040755450605536</v>
       </c>
       <c r="D56">
-        <v>0.1333430105421881</v>
+        <v>0.01359506960824741</v>
       </c>
       <c r="E56">
-        <v>-0.01843016110107233</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.04396156458679827</v>
+      </c>
+      <c r="F56">
+        <v>0.09333422807702434</v>
+      </c>
+      <c r="G56">
+        <v>0.002091835148695559</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.02266570079161317</v>
+        <v>-0.01160000307262649</v>
       </c>
       <c r="C57">
-        <v>-0.01886577080745249</v>
+        <v>-0.01098199114088211</v>
       </c>
       <c r="D57">
-        <v>0.03819735148291089</v>
+        <v>-0.02358459950615528</v>
       </c>
       <c r="E57">
-        <v>-0.01257324328271688</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>0.02841285931318574</v>
+      </c>
+      <c r="F57">
+        <v>-0.01513276121200265</v>
+      </c>
+      <c r="G57">
+        <v>-0.02039379002513525</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.008456682771978188</v>
+        <v>-0.08121764398209054</v>
       </c>
       <c r="C58">
-        <v>-0.08793121950511465</v>
+        <v>-0.0515938218732133</v>
       </c>
       <c r="D58">
-        <v>0.0968030909926617</v>
+        <v>-0.01833110400867874</v>
       </c>
       <c r="E58">
-        <v>-0.2176359650596405</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.9450429634284696</v>
+      </c>
+      <c r="F58">
+        <v>0.2286110930155034</v>
+      </c>
+      <c r="G58">
+        <v>-0.00417409818539841</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.02188662608890581</v>
+        <v>-0.1537564283218045</v>
       </c>
       <c r="C59">
-        <v>-0.2266068111138702</v>
+        <v>0.2114981735893007</v>
       </c>
       <c r="D59">
-        <v>-0.1888037386252959</v>
+        <v>0.01684759292683416</v>
       </c>
       <c r="E59">
-        <v>0.003700425833240417</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.01219606658661341</v>
+      </c>
+      <c r="F59">
+        <v>-0.008336759978323867</v>
+      </c>
+      <c r="G59">
+        <v>-0.02147720257674953</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.0281478492266259</v>
+        <v>-0.2912204342439716</v>
       </c>
       <c r="C60">
-        <v>-0.1633139530783059</v>
+        <v>-0.09001186488536093</v>
       </c>
       <c r="D60">
-        <v>0.0762589888512217</v>
+        <v>-0.008251822740420385</v>
       </c>
       <c r="E60">
-        <v>-0.05168999468920168</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.001506685759465945</v>
+      </c>
+      <c r="F60">
+        <v>-0.3708952229044025</v>
+      </c>
+      <c r="G60">
+        <v>0.07844070764872638</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.002721592280914615</v>
+        <v>-0.03317462756870821</v>
       </c>
       <c r="C61">
-        <v>-0.009040635951026469</v>
+        <v>-0.0638827432705993</v>
       </c>
       <c r="D61">
-        <v>0.06692833773952962</v>
+        <v>-0.005258197650789425</v>
       </c>
       <c r="E61">
-        <v>-0.009931313520169772</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.01163522507299546</v>
+      </c>
+      <c r="F61">
+        <v>-0.01930302545929135</v>
+      </c>
+      <c r="G61">
+        <v>-0.02529056264739311</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.007031327744012736</v>
+        <v>-0.01212133293358838</v>
       </c>
       <c r="C63">
-        <v>-0.007452709901824553</v>
+        <v>-0.02841486806581985</v>
       </c>
       <c r="D63">
-        <v>0.01127697596578731</v>
+        <v>-0.008207770742691569</v>
       </c>
       <c r="E63">
-        <v>0.006105610118590328</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.005849005756900058</v>
+      </c>
+      <c r="F63">
+        <v>0.01786646077507184</v>
+      </c>
+      <c r="G63">
+        <v>-0.03669079304351717</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.006449443397941741</v>
+        <v>-0.0493440542586046</v>
       </c>
       <c r="C64">
-        <v>-0.03448889246328931</v>
+        <v>-0.03718645155243411</v>
       </c>
       <c r="D64">
-        <v>0.06461936345370208</v>
+        <v>-0.004859108093945845</v>
       </c>
       <c r="E64">
-        <v>-0.01337397946481171</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.004315002259455441</v>
+      </c>
+      <c r="F64">
+        <v>-0.004699587013486181</v>
+      </c>
+      <c r="G64">
+        <v>-0.0227829974558272</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.01706132197540983</v>
+        <v>-0.08470332853135329</v>
       </c>
       <c r="C65">
-        <v>-0.02765193765411484</v>
+        <v>-0.06434650043575227</v>
       </c>
       <c r="D65">
-        <v>0.09336048809571379</v>
+        <v>-0.01471833878408094</v>
       </c>
       <c r="E65">
-        <v>-0.004593020526920795</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.009693771926015929</v>
+      </c>
+      <c r="F65">
+        <v>-0.02720659970356418</v>
+      </c>
+      <c r="G65">
+        <v>-0.01151374494449006</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.005322320921624562</v>
+        <v>-0.05347802602922231</v>
       </c>
       <c r="C66">
-        <v>0.005876424034295271</v>
+        <v>-0.1145730761263183</v>
       </c>
       <c r="D66">
-        <v>0.1184631549305718</v>
+        <v>-0.01162254954051261</v>
       </c>
       <c r="E66">
-        <v>-0.03266058060516945</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.02635924566541719</v>
+      </c>
+      <c r="F66">
+        <v>-0.04455815004857759</v>
+      </c>
+      <c r="G66">
+        <v>-0.01898431168867232</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.001672129884600334</v>
+        <v>-0.05463089935800951</v>
       </c>
       <c r="C67">
-        <v>-0.04513974053229105</v>
+        <v>-0.03077203011423103</v>
       </c>
       <c r="D67">
-        <v>0.02757530521528282</v>
+        <v>0.006091554854023767</v>
       </c>
       <c r="E67">
-        <v>-0.002949092192219597</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.004892556581608302</v>
+      </c>
+      <c r="F67">
+        <v>0.005220938581613052</v>
+      </c>
+      <c r="G67">
+        <v>-0.0304714073170325</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.03926806542784028</v>
+        <v>-0.1351919114773456</v>
       </c>
       <c r="C68">
-        <v>-0.1931196901320674</v>
+        <v>0.2702125459178829</v>
       </c>
       <c r="D68">
-        <v>-0.1817273933182972</v>
+        <v>-0.001132378150494698</v>
       </c>
       <c r="E68">
-        <v>0.001522492122673524</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.008702185707284107</v>
+      </c>
+      <c r="F68">
+        <v>0.03435268721138319</v>
+      </c>
+      <c r="G68">
+        <v>-0.02187171505129134</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.003730553121742199</v>
+        <v>-0.07739323470619956</v>
       </c>
       <c r="C69">
-        <v>-0.0464912648241931</v>
+        <v>-0.06527835306765117</v>
       </c>
       <c r="D69">
-        <v>0.05477146744187622</v>
+        <v>0.008973668746890722</v>
       </c>
       <c r="E69">
-        <v>-0.003040815538934757</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.03093151078098107</v>
+      </c>
+      <c r="F69">
+        <v>0.04200729492150392</v>
+      </c>
+      <c r="G69">
+        <v>-0.02569082780458609</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.02720130923899131</v>
+        <v>-0.1344464011911119</v>
       </c>
       <c r="C71">
-        <v>-0.1728582470317078</v>
+        <v>0.230168214747383</v>
       </c>
       <c r="D71">
-        <v>-0.1600500522257308</v>
+        <v>0.008009867205725262</v>
       </c>
       <c r="E71">
-        <v>0.01307025082177447</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.02506625492917392</v>
+      </c>
+      <c r="F71">
+        <v>0.01422955047734513</v>
+      </c>
+      <c r="G71">
+        <v>-0.0318878251051553</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.003180691787497177</v>
+        <v>-0.08271843584188193</v>
       </c>
       <c r="C72">
-        <v>-0.0520932844323987</v>
+        <v>-0.07373718836873014</v>
       </c>
       <c r="D72">
-        <v>0.1378157147528462</v>
+        <v>0.008769776183661879</v>
       </c>
       <c r="E72">
-        <v>-0.03537995830294348</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.01278818247198698</v>
+      </c>
+      <c r="F72">
+        <v>-0.03950021921455291</v>
+      </c>
+      <c r="G72">
+        <v>-0.009303724800990799</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.0416763188609006</v>
+        <v>-0.4014232857215684</v>
       </c>
       <c r="C73">
-        <v>-0.1946533975085299</v>
+        <v>-0.1033695087289354</v>
       </c>
       <c r="D73">
-        <v>0.1397874295699216</v>
+        <v>-0.01342581026497193</v>
       </c>
       <c r="E73">
-        <v>-0.1175953854330403</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.05866436230463107</v>
+      </c>
+      <c r="F73">
+        <v>-0.5417476464932813</v>
+      </c>
+      <c r="G73">
+        <v>0.1260570454113208</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.001681510898940387</v>
+        <v>-0.1172765398591404</v>
       </c>
       <c r="C74">
-        <v>-0.09867892272816899</v>
+        <v>-0.1174995243310617</v>
       </c>
       <c r="D74">
-        <v>0.1305857662725068</v>
+        <v>0.01026564430540829</v>
       </c>
       <c r="E74">
-        <v>-0.02574015524804207</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.02497446588496839</v>
+      </c>
+      <c r="F74">
+        <v>0.08457169624977448</v>
+      </c>
+      <c r="G74">
+        <v>-0.03012292058283139</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.0009664400409434954</v>
+        <v>-0.2584711294341712</v>
       </c>
       <c r="C75">
-        <v>-0.2304445036195191</v>
+        <v>-0.1527205712117895</v>
       </c>
       <c r="D75">
-        <v>0.2219406225302725</v>
+        <v>0.03104557941428649</v>
       </c>
       <c r="E75">
-        <v>-0.05361181511375933</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.07339379429194665</v>
+      </c>
+      <c r="F75">
+        <v>0.206691724329236</v>
+      </c>
+      <c r="G75">
+        <v>0.04297310513170027</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.006216383514382143</v>
+        <v>-0.135210147028527</v>
       </c>
       <c r="C76">
-        <v>-0.1703867248148501</v>
+        <v>-0.1265301604800438</v>
       </c>
       <c r="D76">
-        <v>0.2114836642973169</v>
+        <v>0.0211122558985551</v>
       </c>
       <c r="E76">
-        <v>-0.01845118442719334</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.0680219431663463</v>
+      </c>
+      <c r="F76">
+        <v>0.1365734515455819</v>
+      </c>
+      <c r="G76">
+        <v>-0.01083005831594481</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.01194442217967553</v>
+        <v>-0.0629923554757265</v>
       </c>
       <c r="C77">
-        <v>-0.0155175714777442</v>
+        <v>-0.06347472651071021</v>
       </c>
       <c r="D77">
-        <v>0.06370295985959872</v>
+        <v>-0.01264583057560355</v>
       </c>
       <c r="E77">
-        <v>-0.01123320018426992</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.04782087893483651</v>
+      </c>
+      <c r="F77">
+        <v>-0.01494964850619561</v>
+      </c>
+      <c r="G77">
+        <v>-0.05001099140186634</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.004023442919319128</v>
+        <v>-0.03971376617205889</v>
       </c>
       <c r="C78">
-        <v>-0.01653332834078785</v>
+        <v>-0.04967531798895853</v>
       </c>
       <c r="D78">
-        <v>0.06218236026549354</v>
+        <v>-0.005460373202608355</v>
       </c>
       <c r="E78">
-        <v>-0.007041877938621526</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.02041550176532235</v>
+      </c>
+      <c r="F78">
+        <v>-0.04361147158653644</v>
+      </c>
+      <c r="G78">
+        <v>-0.0349550891548164</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.01325280125583874</v>
+        <v>-0.0595594021930473</v>
       </c>
       <c r="C80">
-        <v>-0.1599404996198595</v>
+        <v>-0.06757105180320805</v>
       </c>
       <c r="D80">
-        <v>0.2402700917830127</v>
+        <v>-0.01187840705589366</v>
       </c>
       <c r="E80">
-        <v>0.8930356404180945</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.03797958537767213</v>
+      </c>
+      <c r="F80">
+        <v>-0.03195835915241302</v>
+      </c>
+      <c r="G80">
+        <v>-0.9124180333513532</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>8.397004855051628e-05</v>
+        <v>-0.1448532978903406</v>
       </c>
       <c r="C81">
-        <v>-0.1453868690003423</v>
+        <v>-0.09352280316524759</v>
       </c>
       <c r="D81">
-        <v>0.1451625353022116</v>
+        <v>0.01605305323582036</v>
       </c>
       <c r="E81">
-        <v>-0.02512884334497984</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.04097473973950391</v>
+      </c>
+      <c r="F81">
+        <v>0.1342456937502512</v>
+      </c>
+      <c r="G81">
+        <v>-0.01094438688772892</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>-0.05326603923790695</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>-0.03828461988618468</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>0.002810091909694903</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.01907917164811647</v>
+      </c>
+      <c r="F82">
+        <v>0.008973647786487482</v>
+      </c>
+      <c r="G82">
+        <v>0.006139352402535558</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.006364201878290237</v>
+        <v>-0.02788602308240412</v>
       </c>
       <c r="C83">
-        <v>-0.03040048620585998</v>
+        <v>-0.02117860142170407</v>
       </c>
       <c r="D83">
-        <v>0.02433397672239006</v>
+        <v>-0.005278858077773887</v>
       </c>
       <c r="E83">
-        <v>-0.009856088468803649</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.0244013455477785</v>
+      </c>
+      <c r="F83">
+        <v>-0.01770452926040183</v>
+      </c>
+      <c r="G83">
+        <v>-0.02363068160563736</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.007724667585321859</v>
+        <v>-0.2333488657078901</v>
       </c>
       <c r="C85">
-        <v>-0.1801708515380634</v>
+        <v>-0.1514021731551448</v>
       </c>
       <c r="D85">
-        <v>0.2364991000916754</v>
+        <v>0.01947158226212604</v>
       </c>
       <c r="E85">
-        <v>-0.05810369757644299</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.120867298160145</v>
+      </c>
+      <c r="F85">
+        <v>0.1789604725687869</v>
+      </c>
+      <c r="G85">
+        <v>0.06415607040654937</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.005389804313613034</v>
+        <v>-0.01323612446993007</v>
       </c>
       <c r="C86">
-        <v>-0.01369061994323176</v>
+        <v>-0.01908031153890225</v>
       </c>
       <c r="D86">
-        <v>0.00800073939282237</v>
+        <v>-0.009456641669577161</v>
       </c>
       <c r="E86">
-        <v>-0.01871045644207046</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.03814363332225304</v>
+      </c>
+      <c r="F86">
+        <v>-0.02895142085858285</v>
+      </c>
+      <c r="G86">
+        <v>-0.04979083548848253</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.00696516358498735</v>
+        <v>-0.01595824087717522</v>
       </c>
       <c r="C87">
-        <v>-0.010584180146645</v>
+        <v>-0.02799856558327261</v>
       </c>
       <c r="D87">
-        <v>0.03898236197834604</v>
+        <v>-0.01161607482565856</v>
       </c>
       <c r="E87">
-        <v>-0.01116358282581774</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.07396388948862717</v>
+      </c>
+      <c r="F87">
+        <v>-0.0443275397195495</v>
+      </c>
+      <c r="G87">
+        <v>-0.04343913833578719</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.02557391450289231</v>
+        <v>-0.09055541931335363</v>
       </c>
       <c r="C88">
-        <v>-0.04529654398830812</v>
+        <v>-0.05948618696387187</v>
       </c>
       <c r="D88">
-        <v>0.02711568412476055</v>
+        <v>-0.02149151452330362</v>
       </c>
       <c r="E88">
-        <v>-0.006672382152820561</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.01049735869723661</v>
+      </c>
+      <c r="F88">
+        <v>0.01350907222972282</v>
+      </c>
+      <c r="G88">
+        <v>-0.02234438367887404</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.05226846420963607</v>
+        <v>-0.2225773107845777</v>
       </c>
       <c r="C89">
-        <v>-0.3361780029130821</v>
+        <v>0.3694758614273616</v>
       </c>
       <c r="D89">
-        <v>-0.2866029351858407</v>
+        <v>0.008943706115472133</v>
       </c>
       <c r="E89">
-        <v>-0.0005008759713006798</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.02389012552974218</v>
+      </c>
+      <c r="F89">
+        <v>0.02931505551524064</v>
+      </c>
+      <c r="G89">
+        <v>-0.03050848547765151</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.03970203262156279</v>
+        <v>-0.1918258272686395</v>
       </c>
       <c r="C90">
-        <v>-0.2492140783409973</v>
+        <v>0.3349353665530357</v>
       </c>
       <c r="D90">
-        <v>-0.2607673748330918</v>
+        <v>0.01226198631980155</v>
       </c>
       <c r="E90">
-        <v>-0.00228747364337007</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.007093096462439694</v>
+      </c>
+      <c r="F90">
+        <v>0.05299730423930786</v>
+      </c>
+      <c r="G90">
+        <v>0.002848885570595284</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.00287275264064751</v>
+        <v>-0.2057814830526361</v>
       </c>
       <c r="C91">
-        <v>-0.1935219823365691</v>
+        <v>-0.139442968658793</v>
       </c>
       <c r="D91">
-        <v>0.2177900022498278</v>
+        <v>0.02500982857652442</v>
       </c>
       <c r="E91">
-        <v>-0.03933828366213464</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.08710656432394587</v>
+      </c>
+      <c r="F91">
+        <v>0.1811350564082379</v>
+      </c>
+      <c r="G91">
+        <v>0.003177957495836356</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.005961108753316068</v>
+        <v>-0.2031239232629614</v>
       </c>
       <c r="C92">
-        <v>-0.326663993859322</v>
+        <v>0.2587529793699027</v>
       </c>
       <c r="D92">
-        <v>-0.1354438520115347</v>
+        <v>0.05010437892232533</v>
       </c>
       <c r="E92">
-        <v>-0.008456096569693426</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.003107657362340118</v>
+      </c>
+      <c r="F92">
+        <v>0.1202248775300624</v>
+      </c>
+      <c r="G92">
+        <v>-0.06409034405096511</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.03678681737488153</v>
+        <v>-0.2181173644446633</v>
       </c>
       <c r="C93">
-        <v>-0.2871899066194201</v>
+        <v>0.3345034397331922</v>
       </c>
       <c r="D93">
-        <v>-0.2628578012590738</v>
+        <v>0.01934837238327695</v>
       </c>
       <c r="E93">
-        <v>-0.02442419498575004</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.00408248790200662</v>
+      </c>
+      <c r="F93">
+        <v>0.02694789118904804</v>
+      </c>
+      <c r="G93">
+        <v>0.0001117270931720329</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.01868385246318386</v>
+        <v>-0.2863099035265053</v>
       </c>
       <c r="C94">
-        <v>-0.240339102187299</v>
+        <v>-0.1650347883464772</v>
       </c>
       <c r="D94">
-        <v>0.2111528553026051</v>
+        <v>0.01420812956582709</v>
       </c>
       <c r="E94">
-        <v>-0.08891711320611181</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.1149858516979288</v>
+      </c>
+      <c r="F94">
+        <v>0.4214286464771205</v>
+      </c>
+      <c r="G94">
+        <v>0.1411806312226703</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.00684655818737024</v>
+        <v>-0.08556361953257352</v>
       </c>
       <c r="C95">
-        <v>-0.04362376813867082</v>
+        <v>-0.07254123088853907</v>
       </c>
       <c r="D95">
-        <v>0.07284914880775044</v>
+        <v>0.007325423916834797</v>
       </c>
       <c r="E95">
-        <v>-0.1201350513838647</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.07404630256848481</v>
+      </c>
+      <c r="F95">
+        <v>-0.2086988527686078</v>
+      </c>
+      <c r="G95">
+        <v>0.05621976972276125</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.003996954458629416</v>
+        <v>-0.2076793874756553</v>
       </c>
       <c r="C98">
-        <v>-0.1705446522009653</v>
+        <v>-0.0452724310966861</v>
       </c>
       <c r="D98">
-        <v>0.1031206978218507</v>
+        <v>0.01665050256388962</v>
       </c>
       <c r="E98">
-        <v>-0.07561344973771314</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.06364273713975098</v>
+      </c>
+      <c r="F98">
+        <v>-0.2527728768571683</v>
+      </c>
+      <c r="G98">
+        <v>0.0316379030748002</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,73 +2994,103 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.006995855677714677</v>
+        <v>-0.01388062762785108</v>
       </c>
       <c r="C101">
-        <v>-0.01883034369158346</v>
+        <v>-0.02039804017751736</v>
       </c>
       <c r="D101">
-        <v>0.01535652524002291</v>
+        <v>-0.0069347640494801</v>
       </c>
       <c r="E101">
-        <v>0.005289829109600588</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.005478324841634547</v>
+      </c>
+      <c r="F101">
+        <v>0.01370315081467883</v>
+      </c>
+      <c r="G101">
+        <v>-0.02934383797517708</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.01290381224340269</v>
+        <v>-0.1212939922129121</v>
       </c>
       <c r="C102">
-        <v>-0.1147410889456481</v>
+        <v>-0.08228071848017424</v>
       </c>
       <c r="D102">
-        <v>0.1133784757408196</v>
+        <v>-0.0004706719082626067</v>
       </c>
       <c r="E102">
-        <v>-0.02954667997142893</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>-0.04094296037233413</v>
+      </c>
+      <c r="F102">
+        <v>0.05123257299713507</v>
+      </c>
+      <c r="G102">
+        <v>0.009906591033029592</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
-        <v>0.001871758884785511</v>
+        <v>-0.004458149182531877</v>
       </c>
       <c r="C103">
-        <v>-0.01820158471682234</v>
+        <v>-0.0049519665339133</v>
       </c>
       <c r="D103">
-        <v>0.02666175784797385</v>
+        <v>-0.0004933517827705066</v>
       </c>
       <c r="E103">
-        <v>0.01076316130052377</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>0.001199936539174164</v>
+      </c>
+      <c r="F103">
+        <v>0.00907325449831275</v>
+      </c>
+      <c r="G103">
+        <v>-0.01743390559618372</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.9860684908208142</v>
+        <v>-0.03640220141152598</v>
       </c>
       <c r="C104">
-        <v>0.09524690698513365</v>
+        <v>0.04327065131651856</v>
       </c>
       <c r="D104">
-        <v>0.005072148326586699</v>
+        <v>-0.9868700441047999</v>
       </c>
       <c r="E104">
-        <v>0.02640695618097332</v>
+        <v>-0.04320670587642103</v>
+      </c>
+      <c r="F104">
+        <v>0.04006173791916846</v>
+      </c>
+      <c r="G104">
+        <v>0.005217950589057551</v>
       </c>
     </row>
   </sheetData>
